--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H2">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I2">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J2">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N2">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O2">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P2">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q2">
-        <v>7059.814508949227</v>
+        <v>2480.713940080905</v>
       </c>
       <c r="R2">
-        <v>63538.33058054305</v>
+        <v>22326.42546072814</v>
       </c>
       <c r="S2">
-        <v>0.2074056297840126</v>
+        <v>0.1127943884807835</v>
       </c>
       <c r="T2">
-        <v>0.2329209801366717</v>
+        <v>0.1289552056834223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H3">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I3">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J3">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>227.639553</v>
       </c>
       <c r="O3">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P3">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q3">
-        <v>686.6733457871819</v>
+        <v>338.102784291015</v>
       </c>
       <c r="R3">
-        <v>6180.060112084638</v>
+        <v>3042.925058619135</v>
       </c>
       <c r="S3">
-        <v>0.02017332290506356</v>
+        <v>0.01537303281188138</v>
       </c>
       <c r="T3">
-        <v>0.02265507521928979</v>
+        <v>0.01757563150911454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H4">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I4">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J4">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N4">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O4">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P4">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q4">
-        <v>13.464027457686</v>
+        <v>6.249153972809999</v>
       </c>
       <c r="R4">
-        <v>121.176247119174</v>
+        <v>56.24238575528999</v>
       </c>
       <c r="S4">
-        <v>0.0003955507741387154</v>
+        <v>0.0002841397750449108</v>
       </c>
       <c r="T4">
-        <v>0.0004442120211594694</v>
+        <v>0.0003248504081388793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H5">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I5">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J5">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N5">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O5">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P5">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q5">
-        <v>1474.286912370792</v>
+        <v>601.55744243769</v>
       </c>
       <c r="R5">
-        <v>8845.721474224751</v>
+        <v>3609.34465462614</v>
       </c>
       <c r="S5">
-        <v>0.04331210191924754</v>
+        <v>0.02735192589501491</v>
       </c>
       <c r="T5">
-        <v>0.03242694759159069</v>
+        <v>0.02084721457711105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H6">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I6">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J6">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N6">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O6">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P6">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q6">
-        <v>10.262643490944</v>
+        <v>1.73573731473</v>
       </c>
       <c r="R6">
-        <v>92.36379141849599</v>
+        <v>15.62163583257</v>
       </c>
       <c r="S6">
-        <v>0.0003014994280359421</v>
+        <v>7.892140476779942E-05</v>
       </c>
       <c r="T6">
-        <v>0.000338590337986046</v>
+        <v>9.022900980920775E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>15.939302</v>
       </c>
       <c r="I7">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J7">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N7">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O7">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P7">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q7">
-        <v>4144.933950257169</v>
+        <v>2958.029179917062</v>
       </c>
       <c r="R7">
-        <v>37304.40555231452</v>
+        <v>26622.26261925356</v>
       </c>
       <c r="S7">
-        <v>0.121771278165519</v>
+        <v>0.1344972054481127</v>
       </c>
       <c r="T7">
-        <v>0.1367517626804279</v>
+        <v>0.1537675324633881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>15.939302</v>
       </c>
       <c r="I8">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J8">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>227.639553</v>
       </c>
       <c r="O8">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P8">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q8">
         <v>403.1572869346674</v>
@@ -948,10 +948,10 @@
         <v>3628.415582412007</v>
       </c>
       <c r="S8">
-        <v>0.01184409178069807</v>
+        <v>0.01833096468990073</v>
       </c>
       <c r="T8">
-        <v>0.0133011696416427</v>
+        <v>0.02095736635306488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>15.939302</v>
       </c>
       <c r="I9">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J9">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N9">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O9">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P9">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q9">
-        <v>7.904953373182</v>
+        <v>7.451556385724889</v>
       </c>
       <c r="R9">
-        <v>71.14458035863801</v>
+        <v>67.06400747152399</v>
       </c>
       <c r="S9">
-        <v>0.0002322344065413828</v>
+        <v>0.0003388112317901938</v>
       </c>
       <c r="T9">
-        <v>0.0002608042300944656</v>
+        <v>0.0003873550153676459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>15.939302</v>
       </c>
       <c r="I10">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J10">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N10">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O10">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P10">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q10">
-        <v>865.578248232904</v>
+        <v>717.3033695569642</v>
       </c>
       <c r="R10">
-        <v>5193.469489397424</v>
+        <v>4303.820217341785</v>
       </c>
       <c r="S10">
-        <v>0.02542925192645156</v>
+        <v>0.03261472176100423</v>
       </c>
       <c r="T10">
-        <v>0.01903839765268836</v>
+        <v>0.02485843613112266</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>15.939302</v>
       </c>
       <c r="I11">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J11">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N11">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O11">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P11">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q11">
-        <v>6.025367857905778</v>
+        <v>2.069711280565778</v>
       </c>
       <c r="R11">
-        <v>54.22831072115201</v>
+        <v>18.627401525092</v>
       </c>
       <c r="S11">
-        <v>0.0001770153045331636</v>
+        <v>9.410670632002924E-05</v>
       </c>
       <c r="T11">
-        <v>0.000198791991683121</v>
+        <v>0.000107590012527585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H12">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I12">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J12">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N12">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O12">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P12">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q12">
-        <v>3644.574826503035</v>
+        <v>3136.538469597145</v>
       </c>
       <c r="R12">
-        <v>32801.17343852731</v>
+        <v>28228.84622637431</v>
       </c>
       <c r="S12">
-        <v>0.1070715577905925</v>
+        <v>0.1426137584461369</v>
       </c>
       <c r="T12">
-        <v>0.1202436607497887</v>
+        <v>0.1630469990698224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H13">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I13">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J13">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>227.639553</v>
       </c>
       <c r="O13">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P13">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q13">
-        <v>354.4898222062587</v>
+        <v>427.4867700272157</v>
       </c>
       <c r="R13">
-        <v>3190.408399856328</v>
+        <v>3847.380930244941</v>
       </c>
       <c r="S13">
-        <v>0.01041432246321934</v>
+        <v>0.01943719024986515</v>
       </c>
       <c r="T13">
-        <v>0.01169550796725474</v>
+        <v>0.02222208835332444</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H14">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I14">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J14">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N14">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O14">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P14">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q14">
-        <v>6.950700400616</v>
+        <v>7.901238236890444</v>
       </c>
       <c r="R14">
-        <v>62.556303605544</v>
+        <v>71.11114413201399</v>
       </c>
       <c r="S14">
-        <v>0.0002042000384291</v>
+        <v>0.000359257599504591</v>
       </c>
       <c r="T14">
-        <v>0.0002293210321454748</v>
+        <v>0.0004107308728868184</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H15">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I15">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J15">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N15">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O15">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P15">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q15">
-        <v>761.089255398752</v>
+        <v>760.5907434118541</v>
       </c>
       <c r="R15">
-        <v>4566.535532392511</v>
+        <v>4563.544460471125</v>
       </c>
       <c r="S15">
-        <v>0.02235953878642601</v>
+        <v>0.03458293453395384</v>
       </c>
       <c r="T15">
-        <v>0.01674016176244194</v>
+        <v>0.02635857744360587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H16">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I16">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J16">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N16">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O16">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P16">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q16">
-        <v>5.298010602552889</v>
+        <v>2.194612918806889</v>
       </c>
       <c r="R16">
-        <v>47.682095422976</v>
+        <v>19.751516269262</v>
       </c>
       <c r="S16">
-        <v>0.0001556467559072465</v>
+        <v>9.978579880950615E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001747946522896346</v>
+        <v>0.0001140827871233748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H17">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I17">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J17">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N17">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O17">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P17">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q17">
-        <v>4644.065532133235</v>
+        <v>3388.946980810823</v>
       </c>
       <c r="R17">
-        <v>27864.39319279941</v>
+        <v>20333.68188486494</v>
       </c>
       <c r="S17">
-        <v>0.1364349353979955</v>
+        <v>0.154090399589518</v>
       </c>
       <c r="T17">
-        <v>0.1021462432846465</v>
+        <v>0.1174453176293864</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H18">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I18">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J18">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>227.639553</v>
       </c>
       <c r="O18">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P18">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q18">
-        <v>451.7053547175275</v>
+        <v>461.888165142249</v>
       </c>
       <c r="R18">
-        <v>2710.232128305165</v>
+        <v>2771.328990853494</v>
       </c>
       <c r="S18">
-        <v>0.01327035341413576</v>
+        <v>0.02100137073121459</v>
       </c>
       <c r="T18">
-        <v>0.009935261407639924</v>
+        <v>0.01600691972212771</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H19">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I19">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J19">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N19">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O19">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P19">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q19">
-        <v>8.8568652562575</v>
+        <v>8.537079244246</v>
       </c>
       <c r="R19">
-        <v>53.14119153754501</v>
+        <v>51.22247546547599</v>
       </c>
       <c r="S19">
-        <v>0.00026019999733104</v>
+        <v>0.0003881683483164175</v>
       </c>
       <c r="T19">
-        <v>0.000194806793087918</v>
+        <v>0.0002958559072021324</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H20">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I20">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J20">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N20">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O20">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P20">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q20">
-        <v>969.81089595729</v>
+        <v>821.7982111500542</v>
       </c>
       <c r="R20">
-        <v>3879.24358382916</v>
+        <v>3287.192844600217</v>
       </c>
       <c r="S20">
-        <v>0.02849143407272852</v>
+        <v>0.03736594743295919</v>
       </c>
       <c r="T20">
-        <v>0.01422066348735756</v>
+        <v>0.01898649786738724</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H21">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I21">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J21">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N21">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O21">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P21">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q21">
-        <v>6.750940671946666</v>
+        <v>2.371221299318</v>
       </c>
       <c r="R21">
-        <v>40.50564403168</v>
+        <v>14.227327795908</v>
       </c>
       <c r="S21">
-        <v>0.0001983314292358093</v>
+        <v>0.0001078159202831988</v>
       </c>
       <c r="T21">
-        <v>0.0001484869719226639</v>
+        <v>8.217562571643982E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H22">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I22">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J22">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N22">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O22">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P22">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q22">
-        <v>6501.175685912907</v>
+        <v>3949.77972636496</v>
       </c>
       <c r="R22">
-        <v>58510.58117321617</v>
+        <v>35548.01753728464</v>
       </c>
       <c r="S22">
-        <v>0.1909937485983562</v>
+        <v>0.1795906338376937</v>
       </c>
       <c r="T22">
-        <v>0.2144900848151199</v>
+        <v>0.2053218022393157</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H23">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I23">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J23">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>227.639553</v>
       </c>
       <c r="O23">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P23">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q23">
-        <v>632.337302083102</v>
+        <v>538.3254801142623</v>
       </c>
       <c r="R23">
-        <v>5691.035718747918</v>
+        <v>4844.929321028361</v>
       </c>
       <c r="S23">
-        <v>0.01857702014808168</v>
+        <v>0.02447686222585265</v>
       </c>
       <c r="T23">
-        <v>0.02086239291294021</v>
+        <v>0.02798382832101059</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H24">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I24">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J24">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N24">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O24">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P24">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q24">
-        <v>12.398627163846</v>
+        <v>9.949870184521554</v>
       </c>
       <c r="R24">
-        <v>111.587644474614</v>
+        <v>89.54883166069399</v>
       </c>
       <c r="S24">
-        <v>0.0003642510822507984</v>
+        <v>0.0004524058597782893</v>
       </c>
       <c r="T24">
-        <v>0.0004090617944269478</v>
+        <v>0.0005172251163011897</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H25">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I25">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J25">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N25">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O25">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P25">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q25">
-        <v>1357.627486758312</v>
+        <v>957.7966052413341</v>
       </c>
       <c r="R25">
-        <v>8145.764920549871</v>
+        <v>5746.779631448005</v>
       </c>
       <c r="S25">
-        <v>0.03988484166917634</v>
+        <v>0.04354959297469151</v>
       </c>
       <c r="T25">
-        <v>0.0298610229749788</v>
+        <v>0.03319282572547153</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H26">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I26">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J26">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N26">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O26">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P26">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q26">
-        <v>9.450566760917331</v>
+        <v>2.763631850189111</v>
       </c>
       <c r="R26">
-        <v>85.05510084825599</v>
+        <v>24.872686651702</v>
       </c>
       <c r="S26">
-        <v>0.0002776419618927996</v>
+        <v>0.0001256582468021004</v>
       </c>
       <c r="T26">
-        <v>0.000311797890724971</v>
+        <v>0.0001436621562511843</v>
       </c>
     </row>
   </sheetData>
